--- a/NatmiData/natmiOut_TPM/YoungD7/LR-pairs_lrc2p/Fn1-Itga2b.xlsx
+++ b/NatmiData/natmiOut_TPM/YoungD7/LR-pairs_lrc2p/Fn1-Itga2b.xlsx
@@ -537,16 +537,16 @@
         <v>1</v>
       </c>
       <c r="G2">
-        <v>40.75339133333333</v>
+        <v>35.73885133333334</v>
       </c>
       <c r="H2">
-        <v>122.260174</v>
+        <v>107.216554</v>
       </c>
       <c r="I2">
-        <v>0.02126536631186856</v>
+        <v>0.01949729408921566</v>
       </c>
       <c r="J2">
-        <v>0.02126536631186856</v>
+        <v>0.01949729408921566</v>
       </c>
       <c r="K2">
         <v>3</v>
@@ -555,28 +555,28 @@
         <v>1</v>
       </c>
       <c r="M2">
-        <v>0.8063316666666666</v>
+        <v>1.168007333333333</v>
       </c>
       <c r="N2">
-        <v>2.418995</v>
+        <v>3.504022</v>
       </c>
       <c r="O2">
-        <v>0.1277387112198808</v>
+        <v>0.1638609704511517</v>
       </c>
       <c r="P2">
-        <v>0.1277387112198808</v>
+        <v>0.1638609704511517</v>
       </c>
       <c r="Q2">
-        <v>32.86074995612555</v>
+        <v>41.74324044224312</v>
       </c>
       <c r="R2">
-        <v>295.74674960513</v>
+        <v>375.689163980188</v>
       </c>
       <c r="S2">
-        <v>0.00271641048629676</v>
+        <v>0.003194845530630382</v>
       </c>
       <c r="T2">
-        <v>0.00271641048629676</v>
+        <v>0.003194845530630382</v>
       </c>
     </row>
     <row r="3" spans="1:20">
@@ -599,16 +599,16 @@
         <v>1</v>
       </c>
       <c r="G3">
-        <v>40.75339133333333</v>
+        <v>35.73885133333334</v>
       </c>
       <c r="H3">
-        <v>122.260174</v>
+        <v>107.216554</v>
       </c>
       <c r="I3">
-        <v>0.02126536631186856</v>
+        <v>0.01949729408921566</v>
       </c>
       <c r="J3">
-        <v>0.02126536631186856</v>
+        <v>0.01949729408921566</v>
       </c>
       <c r="K3">
         <v>3</v>
@@ -623,22 +623,22 @@
         <v>10.734297</v>
       </c>
       <c r="O3">
-        <v>0.566840884181833</v>
+        <v>0.5019752511630595</v>
       </c>
       <c r="P3">
-        <v>0.5668408841818329</v>
+        <v>0.5019752511630595</v>
       </c>
       <c r="Q3">
-        <v>145.8196687764086</v>
+        <v>127.8771482169487</v>
       </c>
       <c r="R3">
-        <v>1312.377018987678</v>
+        <v>1150.894333952538</v>
       </c>
       <c r="S3">
-        <v>0.01205407904267014</v>
+        <v>0.009787159097434068</v>
       </c>
       <c r="T3">
-        <v>0.01205407904267014</v>
+        <v>0.009787159097434066</v>
       </c>
     </row>
     <row r="4" spans="1:20">
@@ -661,16 +661,16 @@
         <v>1</v>
       </c>
       <c r="G4">
-        <v>40.75339133333333</v>
+        <v>35.73885133333334</v>
       </c>
       <c r="H4">
-        <v>122.260174</v>
+        <v>107.216554</v>
       </c>
       <c r="I4">
-        <v>0.02126536631186856</v>
+        <v>0.01949729408921566</v>
       </c>
       <c r="J4">
-        <v>0.02126536631186856</v>
+        <v>0.01949729408921566</v>
       </c>
       <c r="K4">
         <v>3</v>
@@ -679,28 +679,28 @@
         <v>1</v>
       </c>
       <c r="M4">
-        <v>1.712026</v>
+        <v>1.915392333333333</v>
       </c>
       <c r="N4">
-        <v>5.136078</v>
+        <v>5.746177</v>
       </c>
       <c r="O4">
-        <v>0.2712184127891059</v>
+        <v>0.2687123938160456</v>
       </c>
       <c r="P4">
-        <v>0.2712184127891059</v>
+        <v>0.2687123938160456</v>
       </c>
       <c r="Q4">
-        <v>69.77086555084134</v>
+        <v>68.45392184600645</v>
       </c>
       <c r="R4">
-        <v>627.937789957572</v>
+        <v>616.0852966140581</v>
       </c>
       <c r="S4">
-        <v>0.005767558898483914</v>
+        <v>0.005239164567648576</v>
       </c>
       <c r="T4">
-        <v>0.005767558898483914</v>
+        <v>0.005239164567648576</v>
       </c>
     </row>
     <row r="5" spans="1:20">
@@ -723,46 +723,46 @@
         <v>1</v>
       </c>
       <c r="G5">
-        <v>40.75339133333333</v>
+        <v>35.73885133333334</v>
       </c>
       <c r="H5">
-        <v>122.260174</v>
+        <v>107.216554</v>
       </c>
       <c r="I5">
-        <v>0.02126536631186856</v>
+        <v>0.01949729408921566</v>
       </c>
       <c r="J5">
-        <v>0.02126536631186856</v>
+        <v>0.01949729408921566</v>
       </c>
       <c r="K5">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="L5">
-        <v>1</v>
+        <v>0.6666666666666666</v>
       </c>
       <c r="M5">
-        <v>0.215895</v>
+        <v>0.46654</v>
       </c>
       <c r="N5">
-        <v>0.6476850000000001</v>
+        <v>1.39962</v>
       </c>
       <c r="O5">
-        <v>0.03420199180918048</v>
+        <v>0.06545138456974327</v>
       </c>
       <c r="P5">
-        <v>0.03420199180918047</v>
+        <v>0.06545138456974327</v>
       </c>
       <c r="Q5">
-        <v>8.798453421910001</v>
+        <v>16.67360370105333</v>
       </c>
       <c r="R5">
-        <v>79.18608079719002</v>
+        <v>150.06243330948</v>
       </c>
       <c r="S5">
-        <v>0.0007273178844177512</v>
+        <v>0.001276124893502636</v>
       </c>
       <c r="T5">
-        <v>0.000727317884417751</v>
+        <v>0.001276124893502636</v>
       </c>
     </row>
     <row r="6" spans="1:20">
@@ -788,13 +788,13 @@
         <v>1689.289306666667</v>
       </c>
       <c r="H6">
-        <v>5067.867920000001</v>
+        <v>5067.86792</v>
       </c>
       <c r="I6">
-        <v>0.8814813868902839</v>
+        <v>0.9215900675332435</v>
       </c>
       <c r="J6">
-        <v>0.8814813868902838</v>
+        <v>0.9215900675332435</v>
       </c>
       <c r="K6">
         <v>3</v>
@@ -803,28 +803,28 @@
         <v>1</v>
       </c>
       <c r="M6">
-        <v>0.8063316666666666</v>
+        <v>1.168007333333333</v>
       </c>
       <c r="N6">
-        <v>2.418995</v>
+        <v>3.504022</v>
       </c>
       <c r="O6">
-        <v>0.1277387112198808</v>
+        <v>0.1638609704511517</v>
       </c>
       <c r="P6">
-        <v>0.1277387112198808</v>
+        <v>0.1638609704511517</v>
       </c>
       <c r="Q6">
-        <v>1362.127462126711</v>
+        <v>1973.102298308249</v>
       </c>
       <c r="R6">
-        <v>12259.1471591404</v>
+        <v>17757.92068477424</v>
       </c>
       <c r="S6">
-        <v>0.112599296325678</v>
+        <v>0.1510126428241397</v>
       </c>
       <c r="T6">
-        <v>0.112599296325678</v>
+        <v>0.1510126428241397</v>
       </c>
     </row>
     <row r="7" spans="1:20">
@@ -850,13 +850,13 @@
         <v>1689.289306666667</v>
       </c>
       <c r="H7">
-        <v>5067.867920000001</v>
+        <v>5067.86792</v>
       </c>
       <c r="I7">
-        <v>0.8814813868902839</v>
+        <v>0.9215900675332435</v>
       </c>
       <c r="J7">
-        <v>0.8814813868902838</v>
+        <v>0.9215900675332435</v>
       </c>
       <c r="K7">
         <v>3</v>
@@ -871,22 +871,22 @@
         <v>10.734297</v>
       </c>
       <c r="O7">
-        <v>0.566840884181833</v>
+        <v>0.5019752511630595</v>
       </c>
       <c r="P7">
-        <v>0.5668408841818329</v>
+        <v>0.5019752511630595</v>
       </c>
       <c r="Q7">
-        <v>6044.444378894693</v>
+        <v>6044.444378894692</v>
       </c>
       <c r="R7">
-        <v>54399.99941005224</v>
+        <v>54399.99941005222</v>
       </c>
       <c r="S7">
-        <v>0.4996596887347169</v>
+        <v>0.4626154056193809</v>
       </c>
       <c r="T7">
-        <v>0.4996596887347168</v>
+        <v>0.4626154056193809</v>
       </c>
     </row>
     <row r="8" spans="1:20">
@@ -912,13 +912,13 @@
         <v>1689.289306666667</v>
       </c>
       <c r="H8">
-        <v>5067.867920000001</v>
+        <v>5067.86792</v>
       </c>
       <c r="I8">
-        <v>0.8814813868902839</v>
+        <v>0.9215900675332435</v>
       </c>
       <c r="J8">
-        <v>0.8814813868902838</v>
+        <v>0.9215900675332435</v>
       </c>
       <c r="K8">
         <v>3</v>
@@ -927,28 +927,28 @@
         <v>1</v>
       </c>
       <c r="M8">
-        <v>1.712026</v>
+        <v>1.915392333333333</v>
       </c>
       <c r="N8">
-        <v>5.136078</v>
+        <v>5.746177</v>
       </c>
       <c r="O8">
-        <v>0.2712184127891059</v>
+        <v>0.2687123938160456</v>
       </c>
       <c r="P8">
-        <v>0.2712184127891059</v>
+        <v>0.2687123938160456</v>
       </c>
       <c r="Q8">
-        <v>2892.107214535307</v>
+        <v>3235.651786771316</v>
       </c>
       <c r="R8">
-        <v>26028.96493081776</v>
+        <v>29120.86608094184</v>
       </c>
       <c r="S8">
-        <v>0.2390739826555225</v>
+        <v>0.2476426731639489</v>
       </c>
       <c r="T8">
-        <v>0.2390739826555225</v>
+        <v>0.247642673163949</v>
       </c>
     </row>
     <row r="9" spans="1:20">
@@ -974,43 +974,43 @@
         <v>1689.289306666667</v>
       </c>
       <c r="H9">
-        <v>5067.867920000001</v>
+        <v>5067.86792</v>
       </c>
       <c r="I9">
-        <v>0.8814813868902839</v>
+        <v>0.9215900675332435</v>
       </c>
       <c r="J9">
-        <v>0.8814813868902838</v>
+        <v>0.9215900675332435</v>
       </c>
       <c r="K9">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="L9">
-        <v>1</v>
+        <v>0.6666666666666666</v>
       </c>
       <c r="M9">
-        <v>0.215895</v>
+        <v>0.46654</v>
       </c>
       <c r="N9">
-        <v>0.6476850000000001</v>
+        <v>1.39962</v>
       </c>
       <c r="O9">
-        <v>0.03420199180918048</v>
+        <v>0.06545138456974327</v>
       </c>
       <c r="P9">
-        <v>0.03420199180918047</v>
+        <v>0.06545138456974327</v>
       </c>
       <c r="Q9">
-        <v>364.7091148628001</v>
+        <v>788.1210331322666</v>
       </c>
       <c r="R9">
-        <v>3282.382033765201</v>
+        <v>7093.089298190399</v>
       </c>
       <c r="S9">
-        <v>0.03014841917436654</v>
+        <v>0.06031934592577399</v>
       </c>
       <c r="T9">
-        <v>0.03014841917436653</v>
+        <v>0.06031934592577399</v>
       </c>
     </row>
     <row r="10" spans="1:20">
@@ -1033,16 +1033,16 @@
         <v>1</v>
       </c>
       <c r="G10">
-        <v>85.41274733333334</v>
+        <v>93.641553</v>
       </c>
       <c r="H10">
-        <v>256.238242</v>
+        <v>280.924659</v>
       </c>
       <c r="I10">
-        <v>0.04456888863285297</v>
+        <v>0.05108605424341119</v>
       </c>
       <c r="J10">
-        <v>0.04456888863285296</v>
+        <v>0.05108605424341119</v>
       </c>
       <c r="K10">
         <v>3</v>
@@ -1051,28 +1051,28 @@
         <v>1</v>
       </c>
       <c r="M10">
-        <v>0.8063316666666666</v>
+        <v>1.168007333333333</v>
       </c>
       <c r="N10">
-        <v>2.418995</v>
+        <v>3.504022</v>
       </c>
       <c r="O10">
-        <v>0.1277387112198808</v>
+        <v>0.1638609704511517</v>
       </c>
       <c r="P10">
-        <v>0.1277387112198808</v>
+        <v>0.1638609704511517</v>
       </c>
       <c r="Q10">
-        <v>68.87100291186556</v>
+        <v>109.374020608722</v>
       </c>
       <c r="R10">
-        <v>619.83902620679</v>
+        <v>984.3661854784981</v>
       </c>
       <c r="S10">
-        <v>0.005693172394463033</v>
+        <v>0.008371010424845534</v>
       </c>
       <c r="T10">
-        <v>0.005693172394463032</v>
+        <v>0.008371010424845534</v>
       </c>
     </row>
     <row r="11" spans="1:20">
@@ -1095,16 +1095,16 @@
         <v>1</v>
       </c>
       <c r="G11">
-        <v>85.41274733333334</v>
+        <v>93.641553</v>
       </c>
       <c r="H11">
-        <v>256.238242</v>
+        <v>280.924659</v>
       </c>
       <c r="I11">
-        <v>0.04456888863285297</v>
+        <v>0.05108605424341119</v>
       </c>
       <c r="J11">
-        <v>0.04456888863285296</v>
+        <v>0.05108605424341119</v>
       </c>
       <c r="K11">
         <v>3</v>
@@ -1119,22 +1119,22 @@
         <v>10.734297</v>
       </c>
       <c r="O11">
-        <v>0.566840884181833</v>
+        <v>0.5019752511630595</v>
       </c>
       <c r="P11">
-        <v>0.5668408841818329</v>
+        <v>0.5019752511630595</v>
       </c>
       <c r="Q11">
-        <v>305.6152658206527</v>
+        <v>335.0587471477469</v>
       </c>
       <c r="R11">
-        <v>2750.537392385874</v>
+        <v>3015.528724329723</v>
       </c>
       <c r="S11">
-        <v>0.02526346823964802</v>
+        <v>0.02564393490976601</v>
       </c>
       <c r="T11">
-        <v>0.02526346823964801</v>
+        <v>0.02564393490976601</v>
       </c>
     </row>
     <row r="12" spans="1:20">
@@ -1157,16 +1157,16 @@
         <v>1</v>
       </c>
       <c r="G12">
-        <v>85.41274733333334</v>
+        <v>93.641553</v>
       </c>
       <c r="H12">
-        <v>256.238242</v>
+        <v>280.924659</v>
       </c>
       <c r="I12">
-        <v>0.04456888863285297</v>
+        <v>0.05108605424341119</v>
       </c>
       <c r="J12">
-        <v>0.04456888863285296</v>
+        <v>0.05108605424341119</v>
       </c>
       <c r="K12">
         <v>3</v>
@@ -1175,28 +1175,28 @@
         <v>1</v>
       </c>
       <c r="M12">
-        <v>1.712026</v>
+        <v>1.915392333333333</v>
       </c>
       <c r="N12">
-        <v>5.136078</v>
+        <v>5.746177</v>
       </c>
       <c r="O12">
-        <v>0.2712184127891059</v>
+        <v>0.2687123938160456</v>
       </c>
       <c r="P12">
-        <v>0.2712184127891059</v>
+        <v>0.2687123938160456</v>
       </c>
       <c r="Q12">
-        <v>146.2288441660974</v>
+        <v>179.360312697627</v>
       </c>
       <c r="R12">
-        <v>1316.059597494876</v>
+        <v>1614.242814278643</v>
       </c>
       <c r="S12">
-        <v>0.0120879032347768</v>
+        <v>0.01372745592636337</v>
       </c>
       <c r="T12">
-        <v>0.0120879032347768</v>
+        <v>0.01372745592636337</v>
       </c>
     </row>
     <row r="13" spans="1:20">
@@ -1219,46 +1219,46 @@
         <v>1</v>
       </c>
       <c r="G13">
-        <v>85.41274733333334</v>
+        <v>93.641553</v>
       </c>
       <c r="H13">
-        <v>256.238242</v>
+        <v>280.924659</v>
       </c>
       <c r="I13">
-        <v>0.04456888863285297</v>
+        <v>0.05108605424341119</v>
       </c>
       <c r="J13">
-        <v>0.04456888863285296</v>
+        <v>0.05108605424341119</v>
       </c>
       <c r="K13">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="L13">
-        <v>1</v>
+        <v>0.6666666666666666</v>
       </c>
       <c r="M13">
-        <v>0.215895</v>
+        <v>0.46654</v>
       </c>
       <c r="N13">
-        <v>0.6476850000000001</v>
+        <v>1.39962</v>
       </c>
       <c r="O13">
-        <v>0.03420199180918048</v>
+        <v>0.06545138456974327</v>
       </c>
       <c r="P13">
-        <v>0.03420199180918047</v>
+        <v>0.06545138456974327</v>
       </c>
       <c r="Q13">
-        <v>18.44018508553</v>
+        <v>43.68753013662</v>
       </c>
       <c r="R13">
-        <v>165.96166576977</v>
+        <v>393.18777122958</v>
       </c>
       <c r="S13">
-        <v>0.001524344763965114</v>
+        <v>0.00334365298243627</v>
       </c>
       <c r="T13">
-        <v>0.001524344763965114</v>
+        <v>0.00334365298243627</v>
       </c>
     </row>
     <row r="14" spans="1:20">
@@ -1281,16 +1281,16 @@
         <v>1</v>
       </c>
       <c r="G14">
-        <v>100.9654023333333</v>
+        <v>14.34625366666667</v>
       </c>
       <c r="H14">
-        <v>302.8962069999999</v>
+        <v>43.038761</v>
       </c>
       <c r="I14">
-        <v>0.05268435816499464</v>
+        <v>0.007826584134129748</v>
       </c>
       <c r="J14">
-        <v>0.05268435816499464</v>
+        <v>0.007826584134129748</v>
       </c>
       <c r="K14">
         <v>3</v>
@@ -1299,28 +1299,28 @@
         <v>1</v>
       </c>
       <c r="M14">
-        <v>0.8063316666666666</v>
+        <v>1.168007333333333</v>
       </c>
       <c r="N14">
-        <v>2.418995</v>
+        <v>3.504022</v>
       </c>
       <c r="O14">
-        <v>0.1277387112198808</v>
+        <v>0.1638609704511517</v>
       </c>
       <c r="P14">
-        <v>0.1277387112198808</v>
+        <v>0.1638609704511517</v>
       </c>
       <c r="Q14">
-        <v>81.41160113910719</v>
+        <v>16.75652948852689</v>
       </c>
       <c r="R14">
-        <v>732.7044102519648</v>
+        <v>150.808765396742</v>
       </c>
       <c r="S14">
-        <v>0.006729832013443021</v>
+        <v>0.001282471671536087</v>
       </c>
       <c r="T14">
-        <v>0.006729832013443021</v>
+        <v>0.001282471671536087</v>
       </c>
     </row>
     <row r="15" spans="1:20">
@@ -1343,16 +1343,16 @@
         <v>1</v>
       </c>
       <c r="G15">
-        <v>100.9654023333333</v>
+        <v>14.34625366666667</v>
       </c>
       <c r="H15">
-        <v>302.8962069999999</v>
+        <v>43.038761</v>
       </c>
       <c r="I15">
-        <v>0.05268435816499464</v>
+        <v>0.007826584134129748</v>
       </c>
       <c r="J15">
-        <v>0.05268435816499464</v>
+        <v>0.007826584134129748</v>
       </c>
       <c r="K15">
         <v>3</v>
@@ -1367,22 +1367,22 @@
         <v>10.734297</v>
       </c>
       <c r="O15">
-        <v>0.566840884181833</v>
+        <v>0.5019752511630595</v>
       </c>
       <c r="P15">
-        <v>0.5668408841818329</v>
+        <v>0.5019752511630595</v>
       </c>
       <c r="Q15">
-        <v>361.2642051234976</v>
+        <v>51.33231589844633</v>
       </c>
       <c r="R15">
-        <v>3251.377846111478</v>
+        <v>461.9908430860169</v>
       </c>
       <c r="S15">
-        <v>0.02986364816479794</v>
+        <v>0.003928751536478597</v>
       </c>
       <c r="T15">
-        <v>0.02986364816479793</v>
+        <v>0.003928751536478597</v>
       </c>
     </row>
     <row r="16" spans="1:20">
@@ -1405,16 +1405,16 @@
         <v>1</v>
       </c>
       <c r="G16">
-        <v>100.9654023333333</v>
+        <v>14.34625366666667</v>
       </c>
       <c r="H16">
-        <v>302.8962069999999</v>
+        <v>43.038761</v>
       </c>
       <c r="I16">
-        <v>0.05268435816499464</v>
+        <v>0.007826584134129748</v>
       </c>
       <c r="J16">
-        <v>0.05268435816499464</v>
+        <v>0.007826584134129748</v>
       </c>
       <c r="K16">
         <v>3</v>
@@ -1423,28 +1423,28 @@
         <v>1</v>
       </c>
       <c r="M16">
-        <v>1.712026</v>
+        <v>1.915392333333333</v>
       </c>
       <c r="N16">
-        <v>5.136078</v>
+        <v>5.746177</v>
       </c>
       <c r="O16">
-        <v>0.2712184127891059</v>
+        <v>0.2687123938160456</v>
       </c>
       <c r="P16">
-        <v>0.2712184127891059</v>
+        <v>0.2687123938160456</v>
       </c>
       <c r="Q16">
-        <v>172.8553938951273</v>
+        <v>27.47870428518856</v>
       </c>
       <c r="R16">
-        <v>1555.698545056146</v>
+        <v>247.308338566697</v>
       </c>
       <c r="S16">
-        <v>0.01428896800032262</v>
+        <v>0.002103100158084687</v>
       </c>
       <c r="T16">
-        <v>0.01428896800032262</v>
+        <v>0.002103100158084687</v>
       </c>
     </row>
     <row r="17" spans="1:20">
@@ -1467,46 +1467,46 @@
         <v>1</v>
       </c>
       <c r="G17">
-        <v>100.9654023333333</v>
+        <v>14.34625366666667</v>
       </c>
       <c r="H17">
-        <v>302.8962069999999</v>
+        <v>43.038761</v>
       </c>
       <c r="I17">
-        <v>0.05268435816499464</v>
+        <v>0.007826584134129748</v>
       </c>
       <c r="J17">
-        <v>0.05268435816499464</v>
+        <v>0.007826584134129748</v>
       </c>
       <c r="K17">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="L17">
-        <v>1</v>
+        <v>0.6666666666666666</v>
       </c>
       <c r="M17">
-        <v>0.215895</v>
+        <v>0.46654</v>
       </c>
       <c r="N17">
-        <v>0.6476850000000001</v>
+        <v>1.39962</v>
       </c>
       <c r="O17">
-        <v>0.03420199180918048</v>
+        <v>0.06545138456974327</v>
       </c>
       <c r="P17">
-        <v>0.03420199180918047</v>
+        <v>0.06545138456974327</v>
       </c>
       <c r="Q17">
-        <v>21.797925536755</v>
+        <v>6.693101185646666</v>
       </c>
       <c r="R17">
-        <v>196.181329830795</v>
+        <v>60.23791067081999</v>
       </c>
       <c r="S17">
-        <v>0.001801909986431078</v>
+        <v>0.0005122607680303773</v>
       </c>
       <c r="T17">
-        <v>0.001801909986431077</v>
+        <v>0.0005122607680303773</v>
       </c>
     </row>
   </sheetData>
